--- a/Gantt_Proposal.xlsx
+++ b/Gantt_Proposal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A134DE89-2023-43E2-B2EC-56AE47E1D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A453B26D-E5A4-47B7-BA6A-FE23CDE44F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -946,65 +946,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1575,8 +1575,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1623,106 +1623,106 @@
       <c r="B3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="97">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <v>44606</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>44606</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>44613</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>44620</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>44627</v>
       </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>44634</v>
       </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>44641</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>44648</v>
       </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>44655</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
@@ -2360,10 +2360,10 @@
       <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="82">
         <v>44606</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="82">
         <f>E9+0</f>
         <v>44606</v>
       </c>
@@ -2439,13 +2439,13 @@
       <c r="C10" s="61"/>
       <c r="D10" s="22">
         <f>SUM(D11:D14)/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="87">
+        <v>1</v>
+      </c>
+      <c r="E10" s="82">
         <f>F9</f>
         <v>44606</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="82">
         <f>E10+2</f>
         <v>44608</v>
       </c>
@@ -2513,20 +2513,20 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="52"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="87">
+        <v>1</v>
+      </c>
+      <c r="E11" s="82">
         <f>F9</f>
         <v>44606</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="82">
         <f>E11+2</f>
         <v>44608</v>
       </c>
@@ -2594,20 +2594,20 @@
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52"/>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="78" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="87">
+        <v>1</v>
+      </c>
+      <c r="E12" s="82">
         <f>F9</f>
         <v>44606</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="82">
         <f>E12+2</f>
         <v>44608</v>
       </c>
@@ -2675,20 +2675,20 @@
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="52"/>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="78" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="87">
+        <v>1</v>
+      </c>
+      <c r="E13" s="82">
         <f>F9</f>
         <v>44606</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="82">
         <f>E13+2</f>
         <v>44608</v>
       </c>
@@ -2762,11 +2762,11 @@
       <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="82">
         <f>F9</f>
         <v>44606</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="82">
         <f>E14+2</f>
         <v>44608</v>
       </c>
@@ -2841,8 +2841,8 @@
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="94"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="str">
         <f t="shared" si="6"/>
@@ -2915,10 +2915,10 @@
         <f>SUM(D17:D21)/5</f>
         <v>0</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="84">
         <v>44608</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="84">
         <f>E16+12</f>
         <v>44620</v>
       </c>
@@ -2995,10 +2995,10 @@
       <c r="D17" s="25">
         <v>0</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="84">
         <v>44608</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="84">
         <f>E17+5</f>
         <v>44613</v>
       </c>
@@ -3075,11 +3075,11 @@
       <c r="D18" s="25">
         <v>0</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="84">
         <f>E17</f>
         <v>44608</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="84">
         <f>E18+5</f>
         <v>44613</v>
       </c>
@@ -3156,11 +3156,11 @@
       <c r="D19" s="25">
         <v>0</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="84">
         <f>E18</f>
         <v>44608</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="84">
         <f>E19+5</f>
         <v>44613</v>
       </c>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="52"/>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="79" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="63" t="s">
@@ -3234,10 +3234,10 @@
       <c r="D20" s="25">
         <v>0</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="84">
         <v>44610</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="84">
         <f>E20+7</f>
         <v>44617</v>
       </c>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="52"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="79" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="63" t="s">
@@ -3311,10 +3311,10 @@
       <c r="D21" s="25">
         <v>0</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="84">
         <v>44613</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="84">
         <f>E21+7</f>
         <v>44620</v>
       </c>
@@ -3392,8 +3392,8 @@
         <f>SUM(D23:D26)/4</f>
         <v>0</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="95"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3467,11 +3467,11 @@
       <c r="D23" s="28">
         <v>0</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="86">
         <f>E9+15</f>
         <v>44621</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="86">
         <f>E23+5</f>
         <v>44626</v>
       </c>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="52"/>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="80" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="65" t="s">
@@ -3548,10 +3548,10 @@
       <c r="D24" s="28">
         <v>0</v>
       </c>
-      <c r="E24" s="91">
+      <c r="E24" s="86">
         <v>44620</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="86">
         <f>E24+6</f>
         <v>44626</v>
       </c>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="52"/>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="80" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="65" t="s">
@@ -3628,10 +3628,10 @@
       <c r="D25" s="28">
         <v>0</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="86">
         <v>44627</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="86">
         <v>44627</v>
       </c>
       <c r="G25" s="17"/>
@@ -3704,11 +3704,11 @@
       <c r="D26" s="28">
         <v>0</v>
       </c>
-      <c r="E26" s="91">
+      <c r="E26" s="86">
         <f>F25</f>
         <v>44627</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="86">
         <f>E26+5</f>
         <v>44632</v>
       </c>
@@ -3786,10 +3786,10 @@
         <f>SUM(D28:D31)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="87">
         <v>44632</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="91">
         <v>44651</v>
       </c>
       <c r="G27" s="17"/>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="52"/>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="81" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -3865,10 +3865,10 @@
       <c r="D28" s="31">
         <v>0</v>
       </c>
-      <c r="E28" s="93">
+      <c r="E28" s="88">
         <v>44632</v>
       </c>
-      <c r="F28" s="93">
+      <c r="F28" s="88">
         <f>E28+14</f>
         <v>44646</v>
       </c>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="52"/>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="67" t="s">
@@ -3945,11 +3945,11 @@
       <c r="D29" s="31">
         <v>0</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="88">
         <f>F28</f>
         <v>44646</v>
       </c>
-      <c r="F29" s="93">
+      <c r="F29" s="88">
         <f>E29+4</f>
         <v>44650</v>
       </c>
@@ -4026,10 +4026,10 @@
       <c r="D30" s="31">
         <v>0</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="88">
         <v>44655</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F30" s="88">
         <v>44655</v>
       </c>
       <c r="G30" s="17"/>
@@ -4105,10 +4105,10 @@
       <c r="D31" s="31">
         <v>0</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="88">
         <v>44677</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="88">
         <v>44677</v>
       </c>
       <c r="G31" s="17"/>
@@ -4329,17 +4329,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D19 D21:D33">
     <cfRule type="dataBar" priority="15">
@@ -4827,15 +4827,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4853,6 +4844,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4877,14 +4877,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4894,4 +4886,12 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>